--- a/original_models/new_fibroblast.xlsx
+++ b/original_models/new_fibroblast.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/original_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECC9AE0-33E5-594A-AB09-C99B7F4BF0DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CDF179-696B-6142-A984-19FFFE83ACB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2780" yWindow="-23540" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -2620,8 +2620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2682,13 +2682,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -2697,13 +2697,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -2712,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -2739,10 +2739,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -2751,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -2766,10 +2766,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -2778,25 +2778,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -2820,35 +2820,37 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -2857,25 +2859,25 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -2890,19 +2892,19 @@
         <v>13</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -2911,12 +2913,14 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2924,10 +2928,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -2942,19 +2946,19 @@
         <v>13</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -2969,19 +2973,19 @@
         <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -2990,12 +2994,14 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3027,12 +3033,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
@@ -3040,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>35</v>
@@ -3050,13 +3058,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -3071,7 +3079,7 @@
         <v>13</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -3105,10 +3113,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -3123,19 +3131,19 @@
         <v>13</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -3147,22 +3155,20 @@
         <v>0.1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -3171,25 +3177,25 @@
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -3198,26 +3204,24 @@
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="4">
         <v>0</v>
       </c>
@@ -3225,26 +3229,22 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4">
         <v>0</v>
       </c>
@@ -3252,48 +3252,50 @@
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>202</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -3302,23 +3304,25 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -3333,19 +3337,19 @@
         <v>13</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -3354,25 +3358,23 @@
         <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -3381,25 +3383,25 @@
         <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -3408,25 +3410,25 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -3441,44 +3443,46 @@
         <v>13</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -3493,19 +3497,19 @@
         <v>13</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3517,20 +3521,20 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>100</v>
+        <v>192</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -3539,25 +3543,21 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I35" s="4"/>
+        <v>194</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -3572,19 +3572,19 @@
         <v>13</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -3593,34 +3593,32 @@
         <v>1</v>
       </c>
       <c r="F37" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>35</v>
@@ -3630,13 +3628,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -3651,34 +3649,34 @@
         <v>13</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D40" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="I40" s="4"/>
     </row>
@@ -3687,10 +3685,10 @@
         <v>115</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -3699,13 +3697,13 @@
         <v>1</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I41" s="4"/>
     </row>
@@ -3714,37 +3712,37 @@
         <v>115</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -3759,19 +3757,19 @@
         <v>13</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -3780,52 +3778,48 @@
         <v>1</v>
       </c>
       <c r="F44" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="H44" s="5"/>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D45" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
       </c>
       <c r="F45" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H45" s="5"/>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -3834,25 +3828,25 @@
         <v>1</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -3867,19 +3861,19 @@
         <v>13</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -3888,25 +3882,23 @@
         <v>1</v>
       </c>
       <c r="F48" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H48" s="5"/>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -3921,7 +3913,7 @@
         <v>13</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="6"/>
@@ -3931,13 +3923,13 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -3952,7 +3944,7 @@
         <v>13</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="6"/>
@@ -3962,13 +3954,13 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -3977,13 +3969,13 @@
         <v>1</v>
       </c>
       <c r="F51" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="6"/>
@@ -3993,13 +3985,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -4008,13 +4000,13 @@
         <v>1</v>
       </c>
       <c r="F52" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="6"/>
@@ -4024,13 +4016,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -4039,13 +4031,13 @@
         <v>1</v>
       </c>
       <c r="F53" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="6"/>
@@ -4055,13 +4047,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -4070,13 +4062,13 @@
         <v>1</v>
       </c>
       <c r="F54" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="6"/>
@@ -4086,29 +4078,27 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="D55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
       </c>
       <c r="F55" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H55" s="5"/>
       <c r="I55" s="4"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -4117,13 +4107,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -4138,7 +4128,7 @@
         <v>13</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="6"/>
@@ -4148,13 +4138,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -4169,7 +4159,7 @@
         <v>13</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="6"/>
@@ -4179,13 +4169,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -4200,7 +4190,7 @@
         <v>13</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="6"/>
@@ -4210,28 +4200,28 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="D59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
       </c>
       <c r="F59" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="6"/>
@@ -4241,13 +4231,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -4262,7 +4252,7 @@
         <v>13</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="6"/>
@@ -4275,7 +4265,7 @@
         <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>147</v>
@@ -4293,7 +4283,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="6"/>
@@ -4303,13 +4293,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -4318,13 +4308,13 @@
         <v>1</v>
       </c>
       <c r="F62" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="6"/>
@@ -4334,28 +4324,28 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="4">
         <v>1</v>
       </c>
       <c r="F63" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="6"/>
@@ -4365,13 +4355,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -4386,7 +4376,7 @@
         <v>13</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="6"/>
@@ -4396,13 +4386,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -4411,25 +4401,25 @@
         <v>1</v>
       </c>
       <c r="F65" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="I65" s="4"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -4444,19 +4434,19 @@
         <v>13</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>193</v>
+        <v>53</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -4465,21 +4455,25 @@
         <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I67" s="4"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
@@ -4488,23 +4482,25 @@
         <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H68" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -4513,23 +4509,25 @@
         <v>1</v>
       </c>
       <c r="F69" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H69" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -4544,7 +4542,7 @@
         <v>13</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="I70" s="4"/>
     </row>
@@ -4553,10 +4551,10 @@
         <v>201</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="4">
         <v>0</v>
@@ -4565,25 +4563,23 @@
         <v>1</v>
       </c>
       <c r="F71" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>205</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H71" s="5"/>
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
@@ -4592,23 +4588,23 @@
         <v>1</v>
       </c>
       <c r="F72" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="D73" s="4">
         <v>0</v>
@@ -4617,25 +4613,23 @@
         <v>1</v>
       </c>
       <c r="F73" s="4">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H73" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="H73" s="5"/>
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D74" s="4">
         <v>0</v>
@@ -4644,25 +4638,23 @@
         <v>1</v>
       </c>
       <c r="F74" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H74" s="5" t="s">
-        <v>213</v>
-      </c>
+      <c r="H74" s="5"/>
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -4671,25 +4663,23 @@
         <v>1</v>
       </c>
       <c r="F75" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="H75" s="5"/>
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
@@ -4704,73 +4694,73 @@
         <v>13</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
       </c>
       <c r="E77" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F77" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
       </c>
       <c r="E78" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F78" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
@@ -4779,25 +4769,25 @@
         <v>1</v>
       </c>
       <c r="F79" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
@@ -4806,23 +4796,25 @@
         <v>1</v>
       </c>
       <c r="F80" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="5"/>
+      <c r="H80" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="D81" s="4">
         <v>0</v>
@@ -4831,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>13</v>
@@ -4841,13 +4833,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="D82" s="4">
         <v>0</v>
@@ -4856,48 +4848,48 @@
         <v>1</v>
       </c>
       <c r="F82" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="5"/>
+      <c r="H82" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="D83" s="4">
         <v>0</v>
       </c>
       <c r="E83" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F83" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="4"/>
+      <c r="H83" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D84" s="4">
         <v>0</v>
@@ -4906,25 +4898,25 @@
         <v>1</v>
       </c>
       <c r="F84" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="D85" s="4">
         <v>0</v>
@@ -4933,25 +4925,25 @@
         <v>1</v>
       </c>
       <c r="F85" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="D86" s="4">
         <v>0</v>
@@ -4960,25 +4952,25 @@
         <v>1</v>
       </c>
       <c r="F86" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>243</v>
+        <v>67</v>
       </c>
       <c r="D87" s="4">
         <v>0</v>
@@ -4987,13 +4979,13 @@
         <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>242</v>
+        <v>68</v>
       </c>
       <c r="I87" s="4"/>
     </row>
@@ -5002,16 +4994,16 @@
         <v>217</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D88" s="4">
         <v>0</v>
       </c>
       <c r="E88" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F88" s="4">
         <v>10</v>
@@ -5020,7 +5012,7 @@
         <v>13</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="I88" s="4"/>
     </row>
@@ -5029,16 +5021,16 @@
         <v>217</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="D89" s="4">
         <v>0</v>
       </c>
       <c r="E89" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F89" s="4">
         <v>10</v>
@@ -5047,20 +5039,22 @@
         <v>13</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C90" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="D90" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="4">
         <v>1</v>
@@ -5069,19 +5063,23 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H90" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="D91" s="4">
         <v>0</v>
       </c>
@@ -5089,23 +5087,25 @@
         <v>1</v>
       </c>
       <c r="F91" s="4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H91" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="D92" s="4">
         <v>0</v>
@@ -5114,25 +5114,25 @@
         <v>1</v>
       </c>
       <c r="F92" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="D93" s="4">
         <v>0</v>
@@ -5141,17 +5141,20 @@
         <v>1</v>
       </c>
       <c r="F93" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="I93" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I93">
+    <sortCondition ref="B1"/>
+  </sortState>
   <conditionalFormatting sqref="B98:B1048576 B1:B93">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
@@ -5167,7 +5170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AZ142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
